--- a/biology/Zoologie/Daphnusa_ocellaris/Daphnusa_ocellaris.xlsx
+++ b/biology/Zoologie/Daphnusa_ocellaris/Daphnusa_ocellaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le papillon du durian (Daphnusa ocellaris) est un papillon de nuit. Sa classification entomologique est la suivante :
 lépidoptères de la famille des Sphingidae, sous-famille des Smerinthinae, tribu des Smerinthini, genre Daphnusa . C'est l’espèce type pour le genre.
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue, dans le Nord de l'Inde, au Népal, en Thaïlande, dans le Sud de la Chine (Yunnan), en Malaisie (péninsulaire, Sarawak), en Indonésie (Sumatra, Java, Kalimantan) et aux Philippines .</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure de l'imago varie de 80 à 112 mm.
 			Avers du mâle (coll.MHNT)
@@ -578,7 +594,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles se nourrissent sur les espèces des genres Nephelium et Durio .
 </t>
@@ -609,13 +627,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste britannique Francis Walker en 1856[1].
-Synonymie
-Daphnusa orbifera Walker, 1862
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par l'entomologiste britannique Francis Walker en 1856.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daphnusa_ocellaris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daphnusa_ocellaris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Daphnusa orbifera Walker, 1862
 Smerinthus oculata Boisduval, 1875
-Daphnusa oculata  (Boisduval, [1875]) 
+Daphnusa oculata  (Boisduval, ) 
 Daphnusa fruhstorferi  (Huwe, 1895) 
 Allodaphnusa fruhstorferi Huwe, 1895</t>
         </is>
